--- a/INTERMAC/Master 23 инв.№55550160/ТО Master 23 инв.№55550160 на 2022 год.xlsx
+++ b/INTERMAC/Master 23 инв.№55550160/ТО Master 23 инв.№55550160 на 2022 год.xlsx
@@ -561,9 +561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2564640</xdr:colOff>
+      <xdr:colOff>2564280</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5074560</xdr:rowOff>
+      <xdr:rowOff>5074200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -577,7 +577,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9075600" y="2124000"/>
-          <a:ext cx="2331360" cy="5074560"/>
+          <a:ext cx="2331000" cy="5074200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -594,13 +594,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>2696040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5040000</xdr:colOff>
+      <xdr:colOff>5039640</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>5074560</xdr:rowOff>
+      <xdr:rowOff>5074920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -613,8 +613,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16207800">
-          <a:off x="10172880" y="3489120"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="10172880" y="3489480"/>
+          <a:ext cx="5074200" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -635,9 +635,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5074200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2343960</xdr:rowOff>
+      <xdr:rowOff>2343600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -651,7 +651,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="7203600"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:ext cx="5074200" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -672,9 +672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5074200</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2331360</xdr:rowOff>
+      <xdr:rowOff>2331000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -688,7 +688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="9635400"/>
-          <a:ext cx="5074560" cy="2331360"/>
+          <a:ext cx="5074200" cy="2331000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -709,9 +709,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5074200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2343960</xdr:rowOff>
+      <xdr:rowOff>2343600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -725,7 +725,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="12057480"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:ext cx="5074200" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -746,9 +746,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5074200</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>2343960</xdr:rowOff>
+      <xdr:rowOff>2343600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -762,7 +762,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="17037000"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:ext cx="5074200" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -783,9 +783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5074200</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>2343960</xdr:rowOff>
+      <xdr:rowOff>2343600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -799,7 +799,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8842320" y="19427040"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:ext cx="5074200" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -820,9 +820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5062680</xdr:colOff>
+      <xdr:colOff>5062320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2344680</xdr:rowOff>
+      <xdr:rowOff>2344320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -836,7 +836,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8834400" y="12057480"/>
-          <a:ext cx="5070600" cy="2344680"/>
+          <a:ext cx="5070240" cy="2344320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -857,9 +857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2341800</xdr:colOff>
+      <xdr:colOff>2341440</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>5077800</xdr:rowOff>
+      <xdr:rowOff>5077440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -873,7 +873,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8838000" y="21817440"/>
-          <a:ext cx="2346120" cy="5077800"/>
+          <a:ext cx="2345760" cy="5077440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,9 +894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4923360</xdr:colOff>
+      <xdr:colOff>4923000</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>5103000</xdr:rowOff>
+      <xdr:rowOff>5102640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -910,7 +910,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11419920" y="21842640"/>
-          <a:ext cx="2345760" cy="5077800"/>
+          <a:ext cx="2345400" cy="5077440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -931,9 +931,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>4896000</xdr:rowOff>
+      <xdr:rowOff>4895640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -947,7 +947,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8878320" y="14605560"/>
-          <a:ext cx="5078520" cy="2347920"/>
+          <a:ext cx="5078160" cy="2347560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -973,9 +973,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5074200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2391480</xdr:rowOff>
+      <xdr:rowOff>2391120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -989,7 +989,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7881480" y="9199080"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:ext cx="5074200" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1010,9 +1010,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3661200</xdr:colOff>
+      <xdr:colOff>3660840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1026,7 +1026,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9198720" y="11809440"/>
-          <a:ext cx="2343960" cy="5074560"/>
+          <a:ext cx="2343600" cy="5074200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1047,9 +1047,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5074200</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>2391480</xdr:rowOff>
+      <xdr:rowOff>2391120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1062,8 +1062,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="19280520"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7881480" y="21863520"/>
+          <a:ext cx="5074200" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1084,9 +1084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5074200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1440</xdr:rowOff>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1099,8 +1099,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="21681360"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7881480" y="24264360"/>
+          <a:ext cx="5074200" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1121,7 +1121,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5074200</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
@@ -1136,8 +1136,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="27793440"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7881480" y="30376800"/>
+          <a:ext cx="5074200" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1158,9 +1158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5074200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2391480</xdr:rowOff>
+      <xdr:rowOff>2391120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1173,8 +1173,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="30172680"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7881480" y="32755680"/>
+          <a:ext cx="5074200" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1195,9 +1195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
+      <xdr:colOff>5074200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1210,8 +1210,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="32615640"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7881480" y="35199000"/>
+          <a:ext cx="5074200" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1227,18 +1227,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>47880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12240</xdr:rowOff>
+      <xdr:colOff>5074200</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Изображение 18" descr=""/>
+        <xdr:cNvPr id="18" name="Изображение 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1247,8 +1247,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="16901280"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7881480" y="37557360"/>
+          <a:ext cx="5074200" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1263,19 +1263,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:colOff>7560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5074560</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:colOff>5081400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2464560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Изображение 19" descr=""/>
+        <xdr:cNvPr id="19" name="Изображение 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1284,8 +1284,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7881480" y="34974000"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7889040" y="1566720"/>
+          <a:ext cx="5073840" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1300,19 +1300,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:colOff>1383480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>82440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5081760</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>2464920</xdr:rowOff>
+      <xdr:colOff>3691800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>3686040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Изображение 7" descr=""/>
+        <xdr:cNvPr id="20" name="Изображение 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1321,8 +1321,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7889040" y="1566720"/>
-          <a:ext cx="5074200" cy="2343960"/>
+          <a:off x="9264960" y="26689680"/>
+          <a:ext cx="2308320" cy="3603600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1337,19 +1337,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1383480</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:colOff>1293480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3692160</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>3601800</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>3686400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Изображение 12" descr=""/>
+        <xdr:cNvPr id="21" name="Изображение 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1358,8 +1358,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9264960" y="24106320"/>
-          <a:ext cx="2308680" cy="3603960"/>
+          <a:off x="9174960" y="39961440"/>
+          <a:ext cx="2308320" cy="3603600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1374,19 +1374,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1293480</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:colOff>23760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3602160</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3686760</xdr:rowOff>
+      <xdr:colOff>5097960</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2405520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Изображение 17" descr=""/>
+        <xdr:cNvPr id="22" name="Изображение 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1395,8 +1395,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9174960" y="37378080"/>
-          <a:ext cx="2308680" cy="3603960"/>
+          <a:off x="7905240" y="4092120"/>
+          <a:ext cx="5074200" cy="2343600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1411,19 +1411,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>61920</xdr:rowOff>
+      <xdr:colOff>12600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5098320</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2405880</xdr:rowOff>
+      <xdr:colOff>5087880</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2440080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Изображение 20" descr=""/>
+        <xdr:cNvPr id="23" name="Изображение 23" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1432,8 +1432,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7905240" y="4092120"/>
-          <a:ext cx="5074560" cy="2343960"/>
+          <a:off x="7894080" y="6707160"/>
+          <a:ext cx="5075280" cy="2347560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1448,19 +1448,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>12600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5088240</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>2440440</xdr:rowOff>
+      <xdr:colOff>5079600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2349000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Изображение 23" descr=""/>
+        <xdr:cNvPr id="24" name="Изображение 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1469,8 +1469,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7894080" y="6707160"/>
-          <a:ext cx="5075640" cy="2347920"/>
+          <a:off x="7881480" y="16853400"/>
+          <a:ext cx="5079600" cy="2349000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1746360</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2546280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5061600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>4895280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Изображение 25" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7863480" y="19399680"/>
+          <a:ext cx="5079600" cy="2349000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1676,8 +1713,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A10" colorId="64" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A8" colorId="64" zoomScale="55" zoomScaleNormal="100" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="29.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1795,7 +1832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="187.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="390.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <f aca="false">A8+1</f>
         <v>6</v>
